--- a/data/csv/5b630858e4288e1ccc43097c.xlsx
+++ b/data/csv/5b630858e4288e1ccc43097c.xlsx
@@ -2965,7 +2965,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2973,13 +2973,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2994,8 +3019,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3332,7 +3360,7 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
@@ -3358,7 +3386,7 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
@@ -3384,7 +3412,7 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
@@ -3410,7 +3438,7 @@
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
@@ -3436,7 +3464,7 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
@@ -3462,7 +3490,7 @@
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
@@ -3488,7 +3516,7 @@
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
@@ -3514,7 +3542,7 @@
       <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="s">
@@ -3540,7 +3568,7 @@
       <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D10" t="s">
@@ -3566,7 +3594,7 @@
       <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
@@ -3592,7 +3620,7 @@
       <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
@@ -3618,7 +3646,7 @@
       <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D13" t="s">
@@ -3644,7 +3672,7 @@
       <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D14" t="s">
@@ -3670,7 +3698,7 @@
       <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D15" t="s">
@@ -3696,7 +3724,7 @@
       <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
@@ -3722,7 +3750,7 @@
       <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
@@ -3748,7 +3776,7 @@
       <c r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D18" t="s">
@@ -3774,7 +3802,7 @@
       <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D19" t="s">
@@ -3800,7 +3828,7 @@
       <c r="B20" t="s">
         <v>53</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D20" t="s">
@@ -3826,7 +3854,7 @@
       <c r="B21" t="s">
         <v>55</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D21" t="s">
@@ -3852,7 +3880,7 @@
       <c r="B22" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
@@ -3878,7 +3906,7 @@
       <c r="B23" t="s">
         <v>59</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D23" t="s">
@@ -3904,7 +3932,7 @@
       <c r="B24" t="s">
         <v>61</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
@@ -3930,7 +3958,7 @@
       <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D25" t="s">
@@ -3956,7 +3984,7 @@
       <c r="B26" t="s">
         <v>65</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D26" t="s">
@@ -3982,7 +4010,7 @@
       <c r="B27" t="s">
         <v>67</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D27" t="s">
@@ -4008,7 +4036,7 @@
       <c r="B28" t="s">
         <v>69</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D28" t="s">
@@ -4034,7 +4062,7 @@
       <c r="B29" t="s">
         <v>71</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D29" t="s">
@@ -4060,7 +4088,7 @@
       <c r="B30" t="s">
         <v>73</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D30" t="s">
@@ -4086,7 +4114,7 @@
       <c r="B31" t="s">
         <v>75</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D31" t="s">
@@ -4112,7 +4140,7 @@
       <c r="B32" t="s">
         <v>77</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D32" t="s">
@@ -4138,7 +4166,7 @@
       <c r="B33" t="s">
         <v>79</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D33" t="s">
@@ -4164,7 +4192,7 @@
       <c r="B34" t="s">
         <v>81</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D34" t="s">
@@ -4190,7 +4218,7 @@
       <c r="B35" t="s">
         <v>83</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D35" t="s">
@@ -4216,7 +4244,7 @@
       <c r="B36" t="s">
         <v>85</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D36" t="s">
@@ -4242,7 +4270,7 @@
       <c r="B37" t="s">
         <v>87</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D37" t="s">
@@ -4268,7 +4296,7 @@
       <c r="B38" t="s">
         <v>89</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D38" t="s">
@@ -4294,7 +4322,7 @@
       <c r="B39" t="s">
         <v>91</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D39" t="s">
@@ -4320,7 +4348,7 @@
       <c r="B40" t="s">
         <v>93</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D40" t="s">
@@ -4346,7 +4374,7 @@
       <c r="B41" t="s">
         <v>95</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D41" t="s">
@@ -4372,7 +4400,7 @@
       <c r="B42" t="s">
         <v>97</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D42" t="s">
@@ -4398,7 +4426,7 @@
       <c r="B43" t="s">
         <v>99</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D43" t="s">
@@ -4424,7 +4452,7 @@
       <c r="B44" t="s">
         <v>101</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D44" t="s">
@@ -4450,7 +4478,7 @@
       <c r="B45" t="s">
         <v>103</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D45" t="s">
@@ -4476,7 +4504,7 @@
       <c r="B46" t="s">
         <v>105</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D46" t="s">
@@ -4502,7 +4530,7 @@
       <c r="B47" t="s">
         <v>107</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D47" t="s">
@@ -4528,7 +4556,7 @@
       <c r="B48" t="s">
         <v>109</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D48" t="s">
@@ -4554,7 +4582,7 @@
       <c r="B49" t="s">
         <v>111</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D49" t="s">
@@ -4580,7 +4608,7 @@
       <c r="B50" t="s">
         <v>113</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D50" t="s">
@@ -4606,7 +4634,7 @@
       <c r="B51" t="s">
         <v>115</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D51" t="s">
@@ -4632,7 +4660,7 @@
       <c r="B52" t="s">
         <v>117</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D52" t="s">
@@ -4658,7 +4686,7 @@
       <c r="B53" t="s">
         <v>119</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D53" t="s">
@@ -4684,7 +4712,7 @@
       <c r="B54" t="s">
         <v>121</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D54" t="s">
@@ -4710,7 +4738,7 @@
       <c r="B55" t="s">
         <v>123</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D55" t="s">
@@ -4736,7 +4764,7 @@
       <c r="B56" t="s">
         <v>125</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D56" t="s">
@@ -4762,7 +4790,7 @@
       <c r="B57" t="s">
         <v>127</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D57" t="s">
@@ -4788,7 +4816,7 @@
       <c r="B58" t="s">
         <v>129</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D58" t="s">
@@ -4814,7 +4842,7 @@
       <c r="B59" t="s">
         <v>131</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D59" t="s">
@@ -4840,7 +4868,7 @@
       <c r="B60" t="s">
         <v>133</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D60" t="s">
@@ -4866,7 +4894,7 @@
       <c r="B61" t="s">
         <v>135</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D61" t="s">
@@ -4892,7 +4920,7 @@
       <c r="B62" t="s">
         <v>137</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D62" t="s">
@@ -4918,7 +4946,7 @@
       <c r="B63" t="s">
         <v>139</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D63" t="s">
@@ -4944,7 +4972,7 @@
       <c r="B64" t="s">
         <v>141</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D64" t="s">
@@ -4970,7 +4998,7 @@
       <c r="B65" t="s">
         <v>143</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D65" t="s">
@@ -4996,7 +5024,7 @@
       <c r="B66" t="s">
         <v>145</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D66" t="s">
@@ -5022,7 +5050,7 @@
       <c r="B67" t="s">
         <v>147</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D67" t="s">
@@ -5048,7 +5076,7 @@
       <c r="B68" t="s">
         <v>149</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D68" t="s">
@@ -5074,7 +5102,7 @@
       <c r="B69" t="s">
         <v>151</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D69" t="s">
@@ -5100,7 +5128,7 @@
       <c r="B70" t="s">
         <v>153</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D70" t="s">
@@ -5126,7 +5154,7 @@
       <c r="B71" t="s">
         <v>155</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D71" t="s">
@@ -5152,7 +5180,7 @@
       <c r="B72" t="s">
         <v>157</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D72" t="s">
@@ -5178,7 +5206,7 @@
       <c r="B73" t="s">
         <v>159</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D73" t="s">
@@ -5204,7 +5232,7 @@
       <c r="B74" t="s">
         <v>161</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D74" t="s">
@@ -5230,7 +5258,7 @@
       <c r="B75" t="s">
         <v>163</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D75" t="s">
@@ -5256,7 +5284,7 @@
       <c r="B76" t="s">
         <v>165</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D76" t="s">
@@ -5282,7 +5310,7 @@
       <c r="B77" t="s">
         <v>167</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D77" t="s">
@@ -5308,7 +5336,7 @@
       <c r="B78" t="s">
         <v>169</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D78" t="s">
@@ -5334,7 +5362,7 @@
       <c r="B79" t="s">
         <v>171</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D79" t="s">
@@ -5360,7 +5388,7 @@
       <c r="B80" t="s">
         <v>173</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D80" t="s">
@@ -5386,7 +5414,7 @@
       <c r="B81" t="s">
         <v>176</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D81" t="s">
@@ -5412,7 +5440,7 @@
       <c r="B82" t="s">
         <v>178</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D82" t="s">
@@ -5438,7 +5466,7 @@
       <c r="B83" t="s">
         <v>180</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D83" t="s">
@@ -5464,7 +5492,7 @@
       <c r="B84" t="s">
         <v>182</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D84" t="s">
@@ -5490,7 +5518,7 @@
       <c r="B85" t="s">
         <v>184</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D85" t="s">
@@ -5516,7 +5544,7 @@
       <c r="B86" t="s">
         <v>186</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D86" t="s">
@@ -5542,7 +5570,7 @@
       <c r="B87" t="s">
         <v>188</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D87" t="s">
@@ -5568,7 +5596,7 @@
       <c r="B88" t="s">
         <v>190</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D88" t="s">
@@ -5594,7 +5622,7 @@
       <c r="B89" t="s">
         <v>192</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D89" t="s">
@@ -5620,7 +5648,7 @@
       <c r="B90" t="s">
         <v>194</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D90" t="s">
@@ -5646,7 +5674,7 @@
       <c r="B91" t="s">
         <v>196</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D91" t="s">
@@ -5672,7 +5700,7 @@
       <c r="B92" t="s">
         <v>198</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D92" t="s">
@@ -5698,7 +5726,7 @@
       <c r="B93" t="s">
         <v>200</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D93" t="s">
@@ -5724,7 +5752,7 @@
       <c r="B94" t="s">
         <v>202</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D94" t="s">
@@ -5750,7 +5778,7 @@
       <c r="B95" t="s">
         <v>204</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D95" t="s">
@@ -5776,7 +5804,7 @@
       <c r="B96" t="s">
         <v>206</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D96" t="s">
@@ -5802,7 +5830,7 @@
       <c r="B97" t="s">
         <v>208</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D97" t="s">
@@ -5828,7 +5856,7 @@
       <c r="B98" t="s">
         <v>210</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D98" t="s">
@@ -5854,7 +5882,7 @@
       <c r="B99" t="s">
         <v>212</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D99" t="s">
@@ -5880,7 +5908,7 @@
       <c r="B100" t="s">
         <v>214</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D100" t="s">
@@ -5906,7 +5934,7 @@
       <c r="B101" t="s">
         <v>216</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D101" t="s">
@@ -5932,7 +5960,7 @@
       <c r="B102" t="s">
         <v>218</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D102" t="s">
@@ -5958,7 +5986,7 @@
       <c r="B103" t="s">
         <v>220</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D103" t="s">
@@ -5984,7 +6012,7 @@
       <c r="B104" t="s">
         <v>222</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D104" t="s">
@@ -6010,7 +6038,7 @@
       <c r="B105" t="s">
         <v>224</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D105" t="s">
@@ -6036,7 +6064,7 @@
       <c r="B106" t="s">
         <v>226</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D106" t="s">
@@ -6062,7 +6090,7 @@
       <c r="B107" t="s">
         <v>228</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D107" t="s">
@@ -6088,7 +6116,7 @@
       <c r="B108" t="s">
         <v>230</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D108" t="s">
@@ -6114,7 +6142,7 @@
       <c r="B109" t="s">
         <v>232</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D109" t="s">
@@ -6140,7 +6168,7 @@
       <c r="B110" t="s">
         <v>234</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D110" t="s">
@@ -6166,7 +6194,7 @@
       <c r="B111" t="s">
         <v>236</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D111" t="s">
@@ -6192,7 +6220,7 @@
       <c r="B112" t="s">
         <v>238</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D112" t="s">
@@ -6218,7 +6246,7 @@
       <c r="B113" t="s">
         <v>240</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D113" t="s">
@@ -6244,7 +6272,7 @@
       <c r="B114" t="s">
         <v>242</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D114" t="s">
@@ -6270,7 +6298,7 @@
       <c r="B115" t="s">
         <v>244</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D115" t="s">
@@ -6296,7 +6324,7 @@
       <c r="B116" t="s">
         <v>246</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D116" t="s">
@@ -6322,7 +6350,7 @@
       <c r="B117" t="s">
         <v>248</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D117" t="s">
@@ -6348,7 +6376,7 @@
       <c r="B118" t="s">
         <v>250</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D118" t="s">
@@ -6374,7 +6402,7 @@
       <c r="B119" t="s">
         <v>252</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D119" t="s">
@@ -6400,7 +6428,7 @@
       <c r="B120" t="s">
         <v>254</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D120" t="s">
@@ -6426,7 +6454,7 @@
       <c r="B121" t="s">
         <v>256</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D121" t="s">
@@ -6452,7 +6480,7 @@
       <c r="B122" t="s">
         <v>258</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D122" t="s">
@@ -6478,7 +6506,7 @@
       <c r="B123" t="s">
         <v>260</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D123" t="s">
@@ -6504,7 +6532,7 @@
       <c r="B124" t="s">
         <v>262</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D124" t="s">
@@ -6530,7 +6558,7 @@
       <c r="B125" t="s">
         <v>264</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D125" t="s">
@@ -6556,7 +6584,7 @@
       <c r="B126" t="s">
         <v>266</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D126" t="s">
@@ -6582,7 +6610,7 @@
       <c r="B127" t="s">
         <v>268</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D127" t="s">
@@ -6608,7 +6636,7 @@
       <c r="B128" t="s">
         <v>270</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D128" t="s">
@@ -6634,7 +6662,7 @@
       <c r="B129" t="s">
         <v>272</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D129" t="s">
@@ -6660,7 +6688,7 @@
       <c r="B130" t="s">
         <v>274</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D130" t="s">
@@ -6686,7 +6714,7 @@
       <c r="B131" t="s">
         <v>276</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D131" t="s">
@@ -6712,7 +6740,7 @@
       <c r="B132" t="s">
         <v>278</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D132" t="s">
@@ -6738,7 +6766,7 @@
       <c r="B133" t="s">
         <v>280</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D133" t="s">
@@ -6764,7 +6792,7 @@
       <c r="B134" t="s">
         <v>282</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D134" t="s">
@@ -6790,7 +6818,7 @@
       <c r="B135" t="s">
         <v>284</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D135" t="s">
@@ -6816,7 +6844,7 @@
       <c r="B136" t="s">
         <v>286</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D136" t="s">
@@ -6842,7 +6870,7 @@
       <c r="B137" t="s">
         <v>288</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D137" t="s">
@@ -6868,7 +6896,7 @@
       <c r="B138" t="s">
         <v>290</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D138" t="s">
@@ -6894,7 +6922,7 @@
       <c r="B139" t="s">
         <v>292</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D139" t="s">
@@ -6920,7 +6948,7 @@
       <c r="B140" t="s">
         <v>294</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D140" t="s">
@@ -6946,7 +6974,7 @@
       <c r="B141" t="s">
         <v>296</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D141" t="s">
@@ -6972,7 +7000,7 @@
       <c r="B142" t="s">
         <v>298</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D142" t="s">
@@ -6998,7 +7026,7 @@
       <c r="B143" t="s">
         <v>300</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D143" t="s">
@@ -7024,7 +7052,7 @@
       <c r="B144" t="s">
         <v>302</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D144" t="s">
@@ -7050,7 +7078,7 @@
       <c r="B145" t="s">
         <v>304</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D145" t="s">
@@ -7076,7 +7104,7 @@
       <c r="B146" t="s">
         <v>306</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D146" t="s">
@@ -7102,7 +7130,7 @@
       <c r="B147" t="s">
         <v>308</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D147" t="s">
@@ -7128,7 +7156,7 @@
       <c r="B148" t="s">
         <v>310</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D148" t="s">
@@ -7154,7 +7182,7 @@
       <c r="B149" t="s">
         <v>312</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D149" t="s">
@@ -7180,7 +7208,7 @@
       <c r="B150" t="s">
         <v>314</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D150" t="s">
@@ -7206,7 +7234,7 @@
       <c r="B151" t="s">
         <v>316</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D151" t="s">
@@ -7232,7 +7260,7 @@
       <c r="B152" t="s">
         <v>318</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D152" t="s">
@@ -7258,7 +7286,7 @@
       <c r="B153" t="s">
         <v>320</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D153" t="s">
@@ -7284,7 +7312,7 @@
       <c r="B154" t="s">
         <v>322</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D154" t="s">
@@ -7310,7 +7338,7 @@
       <c r="B155" t="s">
         <v>324</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D155" t="s">
@@ -7336,7 +7364,7 @@
       <c r="B156" t="s">
         <v>326</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D156" t="s">
@@ -7362,7 +7390,7 @@
       <c r="B157" t="s">
         <v>328</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D157" t="s">
@@ -7388,7 +7416,7 @@
       <c r="B158" t="s">
         <v>330</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D158" t="s">
@@ -7414,7 +7442,7 @@
       <c r="B159" t="s">
         <v>332</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D159" t="s">
@@ -7440,7 +7468,7 @@
       <c r="B160" t="s">
         <v>334</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D160" t="s">
@@ -7466,7 +7494,7 @@
       <c r="B161" t="s">
         <v>336</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D161" t="s">
@@ -7492,7 +7520,7 @@
       <c r="B162" t="s">
         <v>338</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D162" t="s">
@@ -7518,7 +7546,7 @@
       <c r="B163" t="s">
         <v>340</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D163" t="s">
@@ -7544,7 +7572,7 @@
       <c r="B164" t="s">
         <v>342</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D164" t="s">
@@ -7570,7 +7598,7 @@
       <c r="B165" t="s">
         <v>344</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D165" t="s">
@@ -7596,7 +7624,7 @@
       <c r="B166" t="s">
         <v>346</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D166" t="s">
@@ -7622,7 +7650,7 @@
       <c r="B167" t="s">
         <v>348</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D167" t="s">
@@ -7648,7 +7676,7 @@
       <c r="B168" t="s">
         <v>350</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D168" t="s">
@@ -7674,7 +7702,7 @@
       <c r="B169" t="s">
         <v>350</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D169" t="s">
@@ -7700,7 +7728,7 @@
       <c r="B170" t="s">
         <v>350</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D170" t="s">
@@ -7726,7 +7754,7 @@
       <c r="B171" t="s">
         <v>350</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D171" t="s">
@@ -7752,7 +7780,7 @@
       <c r="B172" t="s">
         <v>350</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D172" t="s">
@@ -7778,7 +7806,7 @@
       <c r="B173" t="s">
         <v>350</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D173" t="s">
@@ -7804,7 +7832,7 @@
       <c r="B174" t="s">
         <v>350</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D174" t="s">
@@ -7830,7 +7858,7 @@
       <c r="B175" t="s">
         <v>350</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D175" t="s">
@@ -7856,7 +7884,7 @@
       <c r="B176" t="s">
         <v>350</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D176" t="s">
@@ -7882,7 +7910,7 @@
       <c r="B177" t="s">
         <v>350</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D177" t="s">
@@ -7908,7 +7936,7 @@
       <c r="B178" t="s">
         <v>350</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D178" t="s">
@@ -7934,7 +7962,7 @@
       <c r="B179" t="s">
         <v>9</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D179" t="s">
